--- a/DATA/WSC_data/WSC2020_pseudoscorpiones.xlsx
+++ b/DATA/WSC_data/WSC2020_pseudoscorpiones.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\britt\Desktop\GIT _SUBMIT\Project-2\DATA\WSC_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFE6918-AFBE-48AE-AECA-2905ED39E20C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FDC528D-3994-43B3-BD20-7057BF9289DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1752" yWindow="6360" windowWidth="14220" windowHeight="6030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WSC2020_pseudoscorpiones" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1151,8 +1152,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1510,8 +1512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A46" sqref="A1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,32 +1529,32 @@
     <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4020,5 +4022,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>